--- a/Demo_Case/Template.xlsx
+++ b/Demo_Case/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Youstanzr/Desktop/Demo Case 5 Cap WIzard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Youstanzr/Documents/CAPWizard/Demo_Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D19674-6D93-794B-81FB-88CA7BBBB50D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109475CE-879E-994F-B986-662E45462064}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="1" xr2:uid="{58239161-B622-7249-8F96-100B74B576AF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="2" xr2:uid="{58239161-B622-7249-8F96-100B74B576AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Tech display name</t>
   </si>
@@ -102,13 +102,82 @@
   </si>
   <si>
     <t>Generation type</t>
+  </si>
+  <si>
+    <t>Slice Type</t>
+  </si>
+  <si>
+    <t>Extraction of Coal</t>
+  </si>
+  <si>
+    <t>Coa_Extr</t>
+  </si>
+  <si>
+    <t>Oil import</t>
+  </si>
+  <si>
+    <t>Oil_Imp</t>
+  </si>
+  <si>
+    <t>Coal Power Plant</t>
+  </si>
+  <si>
+    <t>Coal_PP</t>
+  </si>
+  <si>
+    <t>Oil Transmission</t>
+  </si>
+  <si>
+    <t>Oil_P_S</t>
+  </si>
+  <si>
+    <t>Hydro Turbine 1</t>
+  </si>
+  <si>
+    <t>Hydro Turbine 2</t>
+  </si>
+  <si>
+    <t>Hyd1</t>
+  </si>
+  <si>
+    <t>Hyd2</t>
+  </si>
+  <si>
+    <t>Solar PV renewables</t>
+  </si>
+  <si>
+    <t>Renewable</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Electricity transmission and distribution</t>
+  </si>
+  <si>
+    <t>Ele_TD</t>
+  </si>
+  <si>
+    <t>Oil Power Plant</t>
+  </si>
+  <si>
+    <t>Oil_PP</t>
+  </si>
+  <si>
+    <t>Oil_S_F</t>
+  </si>
+  <si>
+    <t>Oil distribution</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -118,82 +187,59 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>slack technology should be called 'Dummy'</t>
+      <t>Red Columns should not be deleted nor renamed</t>
     </r>
   </si>
   <si>
-    <t>Slice Type</t>
-  </si>
-  <si>
-    <t>Extraction of Coal</t>
-  </si>
-  <si>
-    <t>Coa_Extr</t>
-  </si>
-  <si>
-    <t>Oil import</t>
-  </si>
-  <si>
-    <t>Oil_Imp</t>
-  </si>
-  <si>
-    <t>Coal Power Plant</t>
-  </si>
-  <si>
-    <t>Coal_PP</t>
-  </si>
-  <si>
-    <t>Oil Transmission</t>
-  </si>
-  <si>
-    <t>Oil_P_S</t>
-  </si>
-  <si>
-    <t>Hydro Turbine 1</t>
-  </si>
-  <si>
-    <t>Hydro Turbine 2</t>
-  </si>
-  <si>
-    <t>Hyd1</t>
-  </si>
-  <si>
-    <t>Hyd2</t>
-  </si>
-  <si>
-    <t>Solar PV renewables</t>
-  </si>
-  <si>
-    <t>Renewable</t>
-  </si>
-  <si>
-    <t>Hydro</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Electricity transmission and distribution</t>
-  </si>
-  <si>
-    <t>Ele_TD</t>
-  </si>
-  <si>
-    <t>Oil Power Plant</t>
-  </si>
-  <si>
-    <t>Oil_PP</t>
-  </si>
-  <si>
-    <t>Oil_S_F</t>
-  </si>
-  <si>
-    <t>Oil distribution</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Slices column is used when user is using segmentation of time slice technique, otherwise, it is left empty while keeping the header</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slack technology should be called 'Dummy' in 'Tech display name' column</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -203,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,6 +279,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -255,16 +316,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Įprastas 2" xfId="1" xr:uid="{1F6EBB4B-C762-6E41-AE51-7E9EF3966DDF}"/>
@@ -580,110 +645,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ACFC9C-24E7-5C4D-9078-EE36869DA00E}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B16" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A4:A75">
-    <sortCondition ref="A4"/>
+  <sortState ref="A6:A77">
+    <sortCondition ref="A6"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -695,9 +775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749E49F3-09E1-544B-9F8D-583921344503}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -712,49 +792,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="str">
-        <f>Guidelines!A9</f>
+        <f>Guidelines!A11</f>
         <v>extraction</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -765,28 +845,28 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="str">
-        <f>Guidelines!A10</f>
+        <f>Guidelines!A12</f>
         <v>generation</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -797,64 +877,64 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="str">
-        <f>Guidelines!A10</f>
+        <f>Guidelines!A12</f>
         <v>generation</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="str">
-        <f>Guidelines!A10</f>
+        <f>Guidelines!A12</f>
         <v>generation</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="str">
-        <f>Guidelines!A12</f>
+        <f>Guidelines!A14</f>
         <v>production</v>
       </c>
       <c r="E8" t="s">
@@ -869,10 +949,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -883,10 +963,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -897,10 +977,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -919,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF1E202-6B4A-514A-8F67-ED8A613DAFD2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
@@ -928,7 +1008,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
